--- a/apps/es/resources/screen/ES101.xlsx
+++ b/apps/es/resources/screen/ES101.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="133">
   <si>
     <t>Do not modify this column</t>
   </si>
@@ -362,6 +362,16 @@
     <t>Incurrence Date to</t>
   </si>
   <si>
+    <t>schPayMed</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>dataUrl: getPayMed
+values: {"value": "id", "display": "tp"}</t>
+  </si>
+  <si>
     <t>bttDownload</t>
   </si>
   <si>
@@ -431,7 +441,7 @@
     <t>One tailor made javascript for each layout</t>
   </si>
   <si>
-    <t>20250429174400</t>
+    <t>20250603170900</t>
   </si>
 </sst>
 </file>
@@ -977,7 +987,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -1173,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>36</v>
@@ -1392,7 +1402,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -1599,9 +1609,7 @@
       <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="C35" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
         <v>106</v>
       </c>
@@ -1614,170 +1622,196 @@
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="L35" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="M35" s="11"/>
-      <c r="N35" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="C37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-    </row>
     <row r="42" spans="1:16">
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="C43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="B45" s="1"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="D47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
     <row r="48" spans="1:16">
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="C49" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="B51" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="17" t="s">
+      <c r="B52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D53" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H52" s="17" t="s">
+      <c r="E53" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I52" s="17" t="s">
+      <c r="F53" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K52" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
       <c r="K53" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="K54" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="C55" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="H55" s="8"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="H56" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1818,7 +1852,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
